--- a/shenzi-wordpress-plugins/shenzi-system-goals/shenzi goals -  oem data - default data.xlsx
+++ b/shenzi-wordpress-plugins/shenzi-system-goals/shenzi goals -  oem data - default data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/shenzi-wordpress-plugins/shenzi-system-goals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA90C733-705C-B345-AC90-F7B34D458468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDC3C96-C2DE-5A48-8A95-66D106F9B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>filetags</t>
+  </si>
+  <si>
+    <t>scorpion.ksit.me</t>
+  </si>
+  <si>
+    <t>jackal.ksit.me</t>
   </si>
 </sst>
 </file>
@@ -366,11 +372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="E1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -379,7 +385,17 @@
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shenzi-wordpress-plugins/shenzi-system-goals/shenzi goals -  oem data - default data.xlsx
+++ b/shenzi-wordpress-plugins/shenzi-system-goals/shenzi goals -  oem data - default data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/shenzi-wordpress-plugins/shenzi-system-goals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDC3C96-C2DE-5A48-8A95-66D106F9B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1257056-A7B1-BA4D-B81F-DFBDB747157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,21 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="filetags" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -376,7 +387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
